--- a/PSNR comparison.xlsx
+++ b/PSNR comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b-shi\Desktop\B4卒研\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baba\unetprogram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA57E023-AA00-441D-8D1D-BBD9D1EF19D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0237A9-AC12-4E87-A38C-C2A23A596270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35F0BAFE-DFD5-4C2F-93DE-D1D051C3AE3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35F0BAFE-DFD5-4C2F-93DE-D1D051C3AE3B}"/>
   </bookViews>
   <sheets>
     <sheet name="提案手法3" sheetId="1" r:id="rId1"/>
@@ -486,10 +486,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,22 +815,22 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" customWidth="1"/>
-    <col min="2" max="2" width="18.8984375" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="21.296875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" customWidth="1"/>
-    <col min="9" max="9" width="17.59765625" customWidth="1"/>
-    <col min="10" max="10" width="28.69921875" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="28.75" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -841,7 +841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -868,7 +868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -897,7 +897,7 @@
         <v>20.040333333333333</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -926,7 +926,7 @@
         <v>20.992666666666668</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -947,68 +947,68 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="10"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>55.514000000000003</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>59.383000000000003</v>
       </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>55.133000000000003</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>58.677999999999997</v>
       </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>55.216000000000001</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>59.665999999999997</v>
       </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>20.992666666666668</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1120,67 +1120,67 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>40.962000000000003</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>45.4</v>
       </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>40.81</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>44.482999999999997</v>
       </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>41.482999999999997</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>47.231000000000002</v>
       </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G19" s="9"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -1204,7 +1204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1224,28 +1224,28 @@
         <v>13.555999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>40.936999999999998</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>48.508000000000003</v>
       </c>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G24" s="9"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>34</v>
@@ -1261,7 +1261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
@@ -1281,32 +1281,24 @@
         <v>27.452000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>46.396999999999998</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>54.515999999999998</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="C17:D17"/>
@@ -1319,6 +1311,14 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
